--- a/OSP Tagesbericht.xlsx
+++ b/OSP Tagesbericht.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Tag_1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -96,19 +96,19 @@
     <t>Fragen erstellen; Recherche Asterisk; Test Installation Asterisk</t>
   </si>
   <si>
-    <t>Pflichtenheft; Pretest der gewählten Software</t>
-  </si>
-  <si>
-    <t>Testinstallation Server; Recherche zu Alternativen; Pretest der gewählten Software</t>
-  </si>
-  <si>
     <t>Testinstallation Softphone; Recherche zu Alternativen; Kosten/Nutzenanalyse; Pretest der gewählten Software</t>
   </si>
   <si>
     <t>Pflichtenheft; Gantt-Diagramm;  Pretest der gewählten Software</t>
   </si>
   <si>
-    <t xml:space="preserve">Projektstrukturplan; Korrektur/Überarbeitung Pflichtenheft; Beschaffung MS Projekt; </t>
+    <t xml:space="preserve">Projektstrukturplan; Korrektur/Überarbeitung Pflichtenheft; Beschaffung MS Projekt; Überarbeitung Kosten-Nutzen Analyse   </t>
+  </si>
+  <si>
+    <t>Pflichtenheft; Pretest der gewählten Software; Gantt Diagramm</t>
+  </si>
+  <si>
+    <t>Testinstallation Server; Recherche zu Alternativen; Pretest der gewählten Software; Überarbeitung Pflichtenheft</t>
   </si>
 </sst>
 </file>
@@ -482,6 +482,10 @@
     <xf numFmtId="2" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -489,10 +493,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -779,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -796,31 +796,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" ht="9" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:7" ht="15">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
@@ -829,52 +829,52 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="8.1" customHeight="1" thickBot="1"/>
     <row r="10" spans="1:7" ht="21" thickBot="1">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="5" t="s">
@@ -1028,28 +1028,48 @@
       <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10" t="str">
+      <c r="B17" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="G17" s="10">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1">
       <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10" t="str">
+      <c r="B18" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="10">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1">
@@ -1058,40 +1078,40 @@
       </c>
       <c r="B19" s="12">
         <f>AVERAGE(B12:B18)</f>
-        <v>0.21000000000000002</v>
+        <v>0.20714285714285713</v>
       </c>
       <c r="C19" s="12">
         <f>AVERAGE(C12:C18)</f>
-        <v>0.21000000000000002</v>
+        <v>0.20714285714285713</v>
       </c>
       <c r="D19" s="12">
         <f>AVERAGE(D12:D18)</f>
-        <v>0.16</v>
+        <v>0.17142857142857143</v>
       </c>
       <c r="E19" s="12">
         <f>AVERAGE(E12:E18)</f>
-        <v>0.21000000000000002</v>
+        <v>0.20714285714285713</v>
       </c>
       <c r="F19" s="12">
         <f>AVERAGE(F12:F18)</f>
-        <v>0.21000000000000002</v>
+        <v>0.20714285714285713</v>
       </c>
       <c r="G19" s="13">
         <f>SUM(B19:F19)</f>
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="7.5" customHeight="1" thickBot="1"/>
     <row r="21" spans="1:7" ht="21" thickBot="1">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
@@ -1143,24 +1163,24 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="90">
+    <row r="24" spans="1:7" ht="105">
       <c r="A24" s="14">
         <v>43425</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>26</v>
       </c>
       <c r="G24" s="16" t="str">
         <f>IF(SUM(B24:F24)=0,"",SUM(B24:F24))</f>

--- a/OSP Tagesbericht.xlsx
+++ b/OSP Tagesbericht.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Projektarbeit in der GSO – Tagesbericht</t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>Testinstallation Server; Recherche zu Alternativen; Pretest der gewählten Software; Überarbeitung Pflichtenheft</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Gant Diagramm / Meilensteine; testen; Arbeitspakete agepasst</t>
+  </si>
+  <si>
+    <t>SIP Trunk eingerichtet; Server Konfiguration; Network Sniffing; Fehlersuche/ Behebung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gantt Diagramm / Meilensteine; Kostenplan; testen; Arbeitspakete angepasst </t>
   </si>
 </sst>
 </file>
@@ -431,7 +443,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -492,6 +504,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -779,16 +794,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="6" width="22.28515625" customWidth="1"/>
+    <col min="2" max="6" width="25.42578125" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
@@ -1143,19 +1156,19 @@
       <c r="A23" s="14">
         <v>43424</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="25" t="s">
         <v>24</v>
       </c>
       <c r="G23" s="16" t="str">
@@ -1167,19 +1180,19 @@
       <c r="A24" s="14">
         <v>43425</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="25" t="s">
         <v>29</v>
       </c>
       <c r="G24" s="16" t="str">
@@ -1191,11 +1204,21 @@
       <c r="A25" s="14">
         <v>43426</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="B25" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>32</v>
+      </c>
       <c r="G25" s="16" t="str">
         <f>IF(SUM(B25:F25)=0,"",SUM(B25:F25))</f>
         <v/>
@@ -1205,11 +1228,11 @@
       <c r="A26" s="14">
         <v>43427</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
       <c r="G26" s="16" t="str">
         <f>IF(SUM(B26:F26)=0,"",SUM(B26:F26))</f>
         <v/>

--- a/OSP Tagesbericht.xlsx
+++ b/OSP Tagesbericht.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdickgre\Documents\GitHub\OSP_VOIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Woll\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9675" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Tag_1" sheetId="1" r:id="rId1"/>
@@ -114,13 +114,13 @@
     <t>-</t>
   </si>
   <si>
-    <t>Gant Diagramm / Meilensteine; testen; Arbeitspakete agepasst</t>
-  </si>
-  <si>
     <t>SIP Trunk eingerichtet; Server Konfiguration; Network Sniffing; Fehlersuche/ Behebung</t>
   </si>
   <si>
     <t xml:space="preserve">Gantt Diagramm / Meilensteine; Kostenplan; testen; Arbeitspakete angepasst </t>
+  </si>
+  <si>
+    <t>Gant Diagramm / Meilensteine; testen; Arbeitspakete angepasst</t>
   </si>
 </sst>
 </file>
@@ -494,6 +494,9 @@
     <xf numFmtId="2" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -504,9 +507,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -794,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -809,31 +809,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30.75" thickBot="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="9" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:7" ht="15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
@@ -842,52 +842,52 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="8.1" customHeight="1" thickBot="1"/>
     <row r="10" spans="1:7" ht="21" thickBot="1">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="5" t="s">
@@ -1116,15 +1116,15 @@
     </row>
     <row r="20" spans="1:7" ht="7.5" customHeight="1" thickBot="1"/>
     <row r="21" spans="1:7" ht="21" thickBot="1">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
@@ -1156,19 +1156,19 @@
       <c r="A23" s="14">
         <v>43424</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="20" t="s">
         <v>24</v>
       </c>
       <c r="G23" s="16" t="str">
@@ -1176,23 +1176,23 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="105">
+    <row r="24" spans="1:7" ht="90">
       <c r="A24" s="14">
         <v>43425</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="20" t="s">
         <v>29</v>
       </c>
       <c r="G24" s="16" t="str">
@@ -1204,20 +1204,20 @@
       <c r="A25" s="14">
         <v>43426</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="D25" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="25" t="s">
+      <c r="F25" s="20" t="s">
         <v>31</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>32</v>
       </c>
       <c r="G25" s="16" t="str">
         <f>IF(SUM(B25:F25)=0,"",SUM(B25:F25))</f>
@@ -1228,11 +1228,11 @@
       <c r="A26" s="14">
         <v>43427</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
       <c r="G26" s="16" t="str">
         <f>IF(SUM(B26:F26)=0,"",SUM(B26:F26))</f>
         <v/>

--- a/OSP Tagesbericht.xlsx
+++ b/OSP Tagesbericht.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Woll\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Woll\Desktop\Schule\Jahr 3\Oberstufenprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9675" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19635" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Tag_1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Projektarbeit in der GSO – Tagesbericht</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>Gant Diagramm / Meilensteine; testen; Arbeitspakete angepasst</t>
+  </si>
+  <si>
+    <t>Soll / ist Vergleich Zeit und Funktionalität</t>
+  </si>
+  <si>
+    <t>Vorbereitungen für die Präsentation</t>
   </si>
 </sst>
 </file>
@@ -795,7 +801,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1229,9 +1235,13 @@
         <v>43427</v>
       </c>
       <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
+      <c r="C26" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
+      <c r="E26" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="F26" s="20"/>
       <c r="G26" s="16" t="str">
         <f>IF(SUM(B26:F26)=0,"",SUM(B26:F26))</f>

--- a/OSP Tagesbericht.xlsx
+++ b/OSP Tagesbericht.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Woll\Desktop\Schule\Jahr 3\Oberstufenprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdickgre\Documents\GitHub\OSP_VOIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Projektarbeit in der GSO – Tagesbericht</t>
   </si>
@@ -123,10 +123,34 @@
     <t>Gant Diagramm / Meilensteine; testen; Arbeitspakete angepasst</t>
   </si>
   <si>
-    <t>Soll / ist Vergleich Zeit und Funktionalität</t>
-  </si>
-  <si>
-    <t>Vorbereitungen für die Präsentation</t>
+    <t>Konzept erstellt; testen</t>
+  </si>
+  <si>
+    <t>Server neu installiert; Serverkonfiguration wiederhergestellt; Konfiguration gesichert; testen</t>
+  </si>
+  <si>
+    <t>Konzept erstellt;  testen</t>
+  </si>
+  <si>
+    <t>Vorbereitungen PoB; testen</t>
+  </si>
+  <si>
+    <t>Konzept erstellt; Testkatalog erstellt; Vorbereitungen PoB</t>
+  </si>
+  <si>
+    <t>Vorbereitungen für die Präsentation; Konzept erstellt;</t>
+  </si>
+  <si>
+    <t>Testfälle simuliert</t>
+  </si>
+  <si>
+    <t>Soll / ist Vergleich Zeit und Funktionalität; Wireshark QoS testen</t>
+  </si>
+  <si>
+    <t>Backup erstellt; Wireshark QoS testen</t>
+  </si>
+  <si>
+    <t>Testkatalog erstellt</t>
   </si>
 </sst>
 </file>
@@ -800,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1048,23 +1072,23 @@
         <v>16</v>
       </c>
       <c r="B17" s="9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C17" s="9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E17" s="9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F17" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="G17" s="10">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1">
@@ -1072,23 +1096,23 @@
         <v>17</v>
       </c>
       <c r="B18" s="9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C18" s="9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D18" s="9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E18" s="9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F18" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="G18" s="10">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1">
@@ -1097,27 +1121,27 @@
       </c>
       <c r="B19" s="12">
         <f>AVERAGE(B12:B18)</f>
-        <v>0.20714285714285713</v>
+        <v>0.15</v>
       </c>
       <c r="C19" s="12">
         <f>AVERAGE(C12:C18)</f>
-        <v>0.20714285714285713</v>
+        <v>0.15</v>
       </c>
       <c r="D19" s="12">
         <f>AVERAGE(D12:D18)</f>
-        <v>0.17142857142857143</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="E19" s="12">
         <f>AVERAGE(E12:E18)</f>
-        <v>0.20714285714285713</v>
+        <v>0.15</v>
       </c>
       <c r="F19" s="12">
         <f>AVERAGE(F12:F18)</f>
-        <v>0.20714285714285713</v>
+        <v>0.15</v>
       </c>
       <c r="G19" s="13">
         <f>SUM(B19:F19)</f>
-        <v>0.99999999999999978</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="7.5" customHeight="1" thickBot="1"/>
@@ -1234,15 +1258,21 @@
       <c r="A26" s="14">
         <v>43427</v>
       </c>
-      <c r="B26" s="20"/>
+      <c r="B26" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="C26" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="20"/>
+        <v>39</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="E26" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="20"/>
+        <v>41</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="G26" s="16" t="str">
         <f>IF(SUM(B26:F26)=0,"",SUM(B26:F26))</f>
         <v/>
@@ -1252,11 +1282,21 @@
       <c r="A27" s="14">
         <v>43430</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="B27" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:7" ht="70.900000000000006" customHeight="1">

--- a/OSP Tagesbericht.xlsx
+++ b/OSP Tagesbericht.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>Projektarbeit in der GSO – Tagesbericht</t>
   </si>
@@ -151,6 +151,36 @@
   </si>
   <si>
     <t>Testkatalog erstellt</t>
+  </si>
+  <si>
+    <t>Abnahme/ Übergabe; Projektstrukturierung; Meilensteinplanung; Qualitätssicherung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einleitung; Analyse der Infrage kommenden Produkte; Wirtschaftlichkeits-analyse </t>
+  </si>
+  <si>
+    <t>Umsetzung; Serverinstallation und -Konfiguration;  Clientinstallation und -Konfiguration</t>
+  </si>
+  <si>
+    <t>Projekt- /Prozessschnittstellen; IST-Analyse; SOLL-Analyse</t>
+  </si>
+  <si>
+    <t>Definitionsphase</t>
+  </si>
+  <si>
+    <t>Planungsphase</t>
+  </si>
+  <si>
+    <t>Abschlussphase</t>
+  </si>
+  <si>
+    <t>Durchführungsphase</t>
+  </si>
+  <si>
+    <t>Format; zusammenfügen der Phasen; Animationen; Überarbeitung</t>
+  </si>
+  <si>
+    <t>Projektumfeld; Projektziel; Entscheidung für ein Produkt; Testfallkatalog; Risikoanalyse; Zeitplanung; Fazit</t>
   </si>
 </sst>
 </file>
@@ -824,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:F18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1072,23 +1102,23 @@
         <v>16</v>
       </c>
       <c r="B17" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C17" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D17" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E17" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F17" s="9">
-        <v>0</v>
-      </c>
-      <c r="G17" s="10" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="G17" s="10">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1">
@@ -1096,23 +1126,23 @@
         <v>17</v>
       </c>
       <c r="B18" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C18" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D18" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E18" s="9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="10" t="str">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="10">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1">
@@ -1121,27 +1151,27 @@
       </c>
       <c r="B19" s="12">
         <f>AVERAGE(B12:B18)</f>
-        <v>0.15</v>
+        <v>0.20714285714285713</v>
       </c>
       <c r="C19" s="12">
         <f>AVERAGE(C12:C18)</f>
-        <v>0.15</v>
+        <v>0.20714285714285713</v>
       </c>
       <c r="D19" s="12">
         <f>AVERAGE(D12:D18)</f>
-        <v>0.1142857142857143</v>
+        <v>0.17142857142857143</v>
       </c>
       <c r="E19" s="12">
         <f>AVERAGE(E12:E18)</f>
-        <v>0.15</v>
+        <v>0.20714285714285713</v>
       </c>
       <c r="F19" s="12">
         <f>AVERAGE(F12:F18)</f>
-        <v>0.15</v>
+        <v>0.20714285714285713</v>
       </c>
       <c r="G19" s="13">
         <f>SUM(B19:F19)</f>
-        <v>0.7142857142857143</v>
+        <v>0.99999999999999978</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="7.5" customHeight="1" thickBot="1"/>
@@ -1299,26 +1329,46 @@
       </c>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="1:7" ht="70.900000000000006" customHeight="1">
+    <row r="28" spans="1:7" ht="90">
       <c r="A28" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="B28" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:7" ht="70.900000000000006" customHeight="1" thickBot="1">
       <c r="A29" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="B29" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="G29" s="19" t="str">
         <f>IF(SUM(B29:F29)=0,"",SUM(B29:F29))</f>
         <v/>
@@ -1337,6 +1387,6 @@
     <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.19645669291338602" bottom="0.19645669291338602" header="0" footer="0"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>